--- a/VDM/aspose/人员信息导入模板.xlsx
+++ b/VDM/aspose/人员信息导入模板.xlsx
@@ -14,75 +14,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>户主姓名</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>姓名</t>
   </si>
   <si>
     <t>身份证号</t>
   </si>
   <si>
+    <t>出生日期</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>与户主关系</t>
+  </si>
+  <si>
+    <t>民族</t>
+  </si>
+  <si>
+    <t>政治面貌</t>
+  </si>
+  <si>
+    <t>入党时间</t>
+  </si>
+  <si>
     <t>联系电话</t>
   </si>
   <si>
-    <t>家用车辆-品牌</t>
-  </si>
-  <si>
-    <t>农用机械类型</t>
-  </si>
-  <si>
-    <t>种植作物种类</t>
-  </si>
-  <si>
-    <t>占地面积(亩)</t>
-  </si>
-  <si>
-    <t>种植占地地类</t>
-  </si>
-  <si>
-    <t>是否办理设施农用地手续</t>
-  </si>
-  <si>
-    <t>种植产量(斤)</t>
-  </si>
-  <si>
-    <t>种植产值(元)</t>
-  </si>
-  <si>
-    <t>养殖动物类型</t>
-  </si>
-  <si>
-    <t>养殖地面积(亩)</t>
-  </si>
-  <si>
-    <t>养殖数量(头)</t>
-  </si>
-  <si>
-    <t>养殖占地地类</t>
-  </si>
-  <si>
-    <t>已接种疫苗的动物数量(头/只)</t>
-  </si>
-  <si>
-    <t>未接种疫苗的动物数量(头/只)</t>
-  </si>
-  <si>
-    <t>存栏数量(头/只)</t>
-  </si>
-  <si>
-    <t>出栏数量(头/只)</t>
-  </si>
-  <si>
-    <t>养殖产出产量(头/只)</t>
-  </si>
-  <si>
-    <t>养殖产出产值(元)</t>
+    <t>是否实名</t>
   </si>
   <si>
     <t>所属镇</t>
   </si>
   <si>
     <t>所属村</t>
+  </si>
+  <si>
+    <t>宗教信仰</t>
+  </si>
+  <si>
+    <t>学历</t>
+  </si>
+  <si>
+    <t>血型</t>
+  </si>
+  <si>
+    <t>婚姻状况</t>
+  </si>
+  <si>
+    <t>是否外出</t>
+  </si>
+  <si>
+    <t>从事行业</t>
+  </si>
+  <si>
+    <t>工作单位/学校名称</t>
+  </si>
+  <si>
+    <t>工作地点/学习地点</t>
+  </si>
+  <si>
+    <t>技能类型</t>
+  </si>
+  <si>
+    <t>就业指导</t>
+  </si>
+  <si>
+    <t>技能培训</t>
+  </si>
+  <si>
+    <t>有无职称</t>
+  </si>
+  <si>
+    <t>职称等级</t>
+  </si>
+  <si>
+    <t>职称获得时间</t>
+  </si>
+  <si>
+    <t>残疾分类</t>
+  </si>
+  <si>
+    <t>残疾等级</t>
+  </si>
+  <si>
+    <t>因何致残</t>
+  </si>
+  <si>
+    <t>大病救助情况</t>
+  </si>
+  <si>
+    <t>临时救助情况</t>
+  </si>
+  <si>
+    <t>是否失能老人</t>
+  </si>
+  <si>
+    <t>是否易地搬迁户</t>
+  </si>
+  <si>
+    <t>低保户/五保户</t>
+  </si>
+  <si>
+    <t>低保等级/五保类别</t>
+  </si>
+  <si>
+    <t>备注</t>
   </si>
 </sst>
 </file>
@@ -555,7 +594,7 @@
     </border>
   </borders>
   <cellStyleXfs count="55">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1326,35 +1365,43 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:AJ1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="AL1" sqref="AK$1:AK$1048576 AL$1:AL$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07079646017699" defaultRowHeight="13.2" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.60176991150442" customWidth="1"/>
+    <col min="1" max="1" width="8.92920353982301" customWidth="1"/>
     <col min="2" max="2" width="19.8672566371681" customWidth="1"/>
-    <col min="3" max="3" width="12.7345132743363" customWidth="1"/>
-    <col min="4" max="4" width="14.3982300884956" customWidth="1"/>
-    <col min="5" max="6" width="13.4690265486726" customWidth="1"/>
-    <col min="7" max="7" width="13.1327433628319" customWidth="1"/>
-    <col min="8" max="8" width="13.4690265486726" customWidth="1"/>
-    <col min="9" max="9" width="23.1327433628319" customWidth="1"/>
-    <col min="10" max="11" width="13.1327433628319" customWidth="1"/>
-    <col min="12" max="12" width="13.4690265486726" customWidth="1"/>
-    <col min="13" max="13" width="15.1327433628319" customWidth="1"/>
-    <col min="14" max="14" width="13.1327433628319" customWidth="1"/>
-    <col min="15" max="15" width="13.4690265486726" customWidth="1"/>
-    <col min="16" max="17" width="27.7345132743363" customWidth="1"/>
-    <col min="18" max="19" width="15.6637168141593" customWidth="1"/>
-    <col min="20" max="20" width="19.6637168141593" customWidth="1"/>
-    <col min="21" max="21" width="17.2035398230088" customWidth="1"/>
-    <col min="22" max="23" width="7.66371681415929" customWidth="1"/>
+    <col min="3" max="3" width="11.070796460177" customWidth="1"/>
+    <col min="4" max="4" width="5.66371681415929" customWidth="1"/>
+    <col min="5" max="5" width="11.5309734513274" customWidth="1"/>
+    <col min="6" max="6" width="5.66371681415929" customWidth="1"/>
+    <col min="7" max="7" width="9.60176991150442" customWidth="1"/>
+    <col min="8" max="8" width="11.070796460177" customWidth="1"/>
+    <col min="9" max="9" width="12.8672566371681" customWidth="1"/>
+    <col min="10" max="10" width="9.60176991150442" customWidth="1"/>
+    <col min="11" max="12" width="7.66371681415929" customWidth="1"/>
+    <col min="13" max="13" width="9.60176991150442" customWidth="1"/>
+    <col min="14" max="15" width="5.66371681415929" customWidth="1"/>
+    <col min="16" max="16" width="9.60176991150442" customWidth="1"/>
+    <col min="17" max="17" width="11.5309734513274" customWidth="1"/>
+    <col min="18" max="18" width="9.60176991150442" customWidth="1"/>
+    <col min="19" max="20" width="18.1327433628319" customWidth="1"/>
+    <col min="21" max="24" width="9.60176991150442" customWidth="1"/>
+    <col min="25" max="25" width="14" customWidth="1"/>
+    <col min="26" max="26" width="13.4690265486726" customWidth="1"/>
+    <col min="27" max="29" width="9.60176991150442" customWidth="1"/>
+    <col min="30" max="32" width="13.4690265486726" customWidth="1"/>
+    <col min="33" max="33" width="15.3982300884956" customWidth="1"/>
+    <col min="34" max="34" width="14.2035398230088" customWidth="1"/>
+    <col min="35" max="35" width="18.1327433628319" customWidth="1"/>
+    <col min="36" max="36" width="5.66371681415929" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:23">
+    <row r="1" customHeight="1" spans="1:36">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1424,26 +1471,47 @@
       <c r="W1" t="s">
         <v>22</v>
       </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 H1 I1 L1 O1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D21">
-      <formula1>"1,2"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
-      <formula1>"小麦,玉米,苹果,桃,樱桃,葡萄,其他,无"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576 O2:O1048576">
-      <formula1>"耕地,园地,林地,牧草地,农田水利设施用地"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
-      <formula1>"猪,牛,羊,鸡,鸭,鹅,鱼类,蟹类,虾类,其它,无"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/VDM/aspose/人员信息导入模板.xlsx
+++ b/VDM/aspose/人员信息导入模板.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>姓名</t>
   </si>
   <si>
     <t>身份证号</t>
-  </si>
-  <si>
-    <t>出生日期</t>
   </si>
   <si>
     <t>性别</t>
@@ -594,7 +591,7 @@
     </border>
   </borders>
   <cellStyleXfs count="55">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1365,43 +1362,42 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AJ1"/>
+  <dimension ref="A1:AI1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AL1" sqref="AK$1:AK$1048576 AL$1:AL$1048576"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07079646017699" defaultRowHeight="13.2" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.92920353982301" customWidth="1"/>
     <col min="2" max="2" width="19.8672566371681" customWidth="1"/>
-    <col min="3" max="3" width="11.070796460177" customWidth="1"/>
-    <col min="4" max="4" width="5.66371681415929" customWidth="1"/>
-    <col min="5" max="5" width="11.5309734513274" customWidth="1"/>
-    <col min="6" max="6" width="5.66371681415929" customWidth="1"/>
-    <col min="7" max="7" width="9.60176991150442" customWidth="1"/>
-    <col min="8" max="8" width="11.070796460177" customWidth="1"/>
-    <col min="9" max="9" width="12.8672566371681" customWidth="1"/>
-    <col min="10" max="10" width="9.60176991150442" customWidth="1"/>
-    <col min="11" max="12" width="7.66371681415929" customWidth="1"/>
-    <col min="13" max="13" width="9.60176991150442" customWidth="1"/>
-    <col min="14" max="15" width="5.66371681415929" customWidth="1"/>
-    <col min="16" max="16" width="9.60176991150442" customWidth="1"/>
-    <col min="17" max="17" width="11.5309734513274" customWidth="1"/>
-    <col min="18" max="18" width="9.60176991150442" customWidth="1"/>
-    <col min="19" max="20" width="18.1327433628319" customWidth="1"/>
-    <col min="21" max="24" width="9.60176991150442" customWidth="1"/>
-    <col min="25" max="25" width="14" customWidth="1"/>
-    <col min="26" max="26" width="13.4690265486726" customWidth="1"/>
-    <col min="27" max="29" width="9.60176991150442" customWidth="1"/>
-    <col min="30" max="32" width="13.4690265486726" customWidth="1"/>
-    <col min="33" max="33" width="15.3982300884956" customWidth="1"/>
-    <col min="34" max="34" width="14.2035398230088" customWidth="1"/>
-    <col min="35" max="35" width="18.1327433628319" customWidth="1"/>
-    <col min="36" max="36" width="5.66371681415929" customWidth="1"/>
+    <col min="3" max="3" width="5.66371681415929" customWidth="1"/>
+    <col min="4" max="4" width="11.5309734513274" customWidth="1"/>
+    <col min="5" max="5" width="5.66371681415929" customWidth="1"/>
+    <col min="6" max="6" width="9.60176991150442" customWidth="1"/>
+    <col min="7" max="7" width="11.070796460177" customWidth="1"/>
+    <col min="8" max="8" width="12.8672566371681" customWidth="1"/>
+    <col min="9" max="9" width="9.60176991150442" customWidth="1"/>
+    <col min="10" max="11" width="7.66371681415929" customWidth="1"/>
+    <col min="12" max="12" width="9.60176991150442" customWidth="1"/>
+    <col min="13" max="14" width="5.66371681415929" customWidth="1"/>
+    <col min="15" max="15" width="9.60176991150442" customWidth="1"/>
+    <col min="16" max="16" width="11.5309734513274" customWidth="1"/>
+    <col min="17" max="17" width="9.60176991150442" customWidth="1"/>
+    <col min="18" max="19" width="18.1327433628319" customWidth="1"/>
+    <col min="20" max="23" width="9.60176991150442" customWidth="1"/>
+    <col min="24" max="24" width="14" customWidth="1"/>
+    <col min="25" max="25" width="13.4690265486726" customWidth="1"/>
+    <col min="26" max="28" width="9.60176991150442" customWidth="1"/>
+    <col min="29" max="31" width="13.4690265486726" customWidth="1"/>
+    <col min="32" max="32" width="15.3982300884956" customWidth="1"/>
+    <col min="33" max="33" width="14.2035398230088" customWidth="1"/>
+    <col min="34" max="34" width="18.1327433628319" customWidth="1"/>
+    <col min="35" max="35" width="5.66371681415929" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:36">
+    <row r="1" customHeight="1" spans="1:35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1506,9 +1502,6 @@
       </c>
       <c r="AI1" t="s">
         <v>34</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
